--- a/etc/documentum/내화및물량/rev0/UAE FFF_마감물량 산출 근거_부속동_r0.xlsx
+++ b/etc/documentum/내화및물량/rev0/UAE FFF_마감물량 산출 근거_부속동_r0.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="825" windowWidth="11610" windowHeight="11670" activeTab="4"/>
+    <workbookView xWindow="11430" yWindow="825" windowWidth="11610" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="PAINT" sheetId="5" r:id="rId1"/>
     <sheet name="Int Wall" sheetId="1" r:id="rId2"/>
-    <sheet name="Door" sheetId="2" r:id="rId3"/>
-    <sheet name="Window" sheetId="3" r:id="rId4"/>
-    <sheet name="Roof" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Ext Wall" sheetId="8" r:id="rId3"/>
+    <sheet name="Door" sheetId="2" r:id="rId4"/>
+    <sheet name="Window" sheetId="3" r:id="rId5"/>
+    <sheet name="Roof" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="258">
   <si>
     <t>Length</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -872,6 +873,49 @@
     <t>경사 최고점변위</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Administration Building</t>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Control Joint&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boundary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C.J ea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -880,7 +924,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +1033,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1260,12 +1310,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,9 +1518,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1754,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="V200" sqref="V200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6903,9 +6958,9 @@
   <dimension ref="A2:W302"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="S300" sqref="S300"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -12883,7 +12938,7 @@
         <v>154</v>
       </c>
       <c r="F199" s="29">
-        <f t="shared" ref="F199:F201" si="54">SUM(G199:Q199)</f>
+        <f t="shared" ref="F199:F200" si="54">SUM(G199:Q199)</f>
         <v>47.5</v>
       </c>
       <c r="G199" s="30">
@@ -15856,10 +15911,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D6">
+        <v>50.8</v>
+      </c>
+      <c r="E6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G6">
+        <f>(C6+D6)*2</f>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="H6">
+        <f>ROUNDUP(G6/6,0)</f>
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <f>G6*H6</f>
+        <v>3379.2000000000003</v>
+      </c>
+      <c r="J6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>7.2</v>
+      </c>
+      <c r="G10">
+        <f>(C10+D10)*2</f>
+        <v>104</v>
+      </c>
+      <c r="H10">
+        <f>ROUNDUP(G10/6,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I10" s="7">
+        <f>G10*H10</f>
+        <v>1872</v>
+      </c>
+      <c r="J10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14">
+        <v>16.8</v>
+      </c>
+      <c r="D14">
+        <v>41.9</v>
+      </c>
+      <c r="E14">
+        <v>8.4</v>
+      </c>
+      <c r="G14">
+        <f>(C14+D14)*2</f>
+        <v>117.4</v>
+      </c>
+      <c r="H14">
+        <f>ROUNDUP(G14/6,0)</f>
+        <v>20</v>
+      </c>
+      <c r="I14" s="7">
+        <f>G14*H14</f>
+        <v>2348</v>
+      </c>
+      <c r="J14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18">
+        <v>22.5</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <f>(C18+D18)*2</f>
+        <v>101</v>
+      </c>
+      <c r="H18">
+        <f>ROUNDUP(G18/6,0)</f>
+        <v>17</v>
+      </c>
+      <c r="I18" s="7">
+        <f>G18*H18</f>
+        <v>1717</v>
+      </c>
+      <c r="J18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22">
+        <v>14.5</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>4.5</v>
+      </c>
+      <c r="G22">
+        <f>(C22+D22)*2</f>
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <f>ROUNDUP(G22/6,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I22" s="7">
+        <f>G22*H22</f>
+        <v>693</v>
+      </c>
+      <c r="J22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26">
+        <v>19.05</v>
+      </c>
+      <c r="D26">
+        <v>23.2</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <f>(C26+D26)*2</f>
+        <v>84.5</v>
+      </c>
+      <c r="H26">
+        <f>ROUNDUP(G26/6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="I26" s="7">
+        <f>G26*H26</f>
+        <v>1267.5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <f>(C30+D30)*2</f>
+        <v>72</v>
+      </c>
+      <c r="H30">
+        <f>ROUNDUP(G30/6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <f>G30*H30</f>
+        <v>864</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34">
+        <v>14.6</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <f>(C34+D34)*2</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="H34">
+        <f>ROUNDUP(G34/6,0)</f>
+        <v>7</v>
+      </c>
+      <c r="I34" s="7">
+        <f>G34*H34</f>
+        <v>274.40000000000003</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y526"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C331" sqref="C331"/>
+    <sheetView topLeftCell="A442" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27141,7 +27472,7 @@
       </c>
       <c r="O403" s="6"/>
       <c r="P403" s="6">
-        <f t="shared" ref="P403:P411" si="35">SUMIF($I$403:$I$461,N403,$K$403:$K$461)</f>
+        <f t="shared" ref="P403:P410" si="35">SUMIF($I$403:$I$461,N403,$K$403:$K$461)</f>
         <v>2</v>
       </c>
       <c r="Q403" s="5"/>
@@ -30084,12 +30415,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R433"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G356" sqref="G356"/>
+    <sheetView topLeftCell="A367" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M333" sqref="M333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38085,12 +38416,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -42897,7 +43228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:D8"/>
   <sheetViews>
